--- a/data/pca/factorExposure/factorExposure_2015-03-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02429550843028713</v>
+        <v>0.01287636684342589</v>
       </c>
       <c r="C2">
-        <v>0.02329031280325527</v>
+        <v>0.05188421821256226</v>
       </c>
       <c r="D2">
-        <v>-0.1544515925009636</v>
+        <v>-0.1221176993108338</v>
       </c>
       <c r="E2">
-        <v>0.05772087018904382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.04808224450868622</v>
+      </c>
+      <c r="F2">
+        <v>0.04270556560895618</v>
+      </c>
+      <c r="G2">
+        <v>0.1385093936375479</v>
+      </c>
+      <c r="H2">
+        <v>0.07578011160720617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04833912106468873</v>
+        <v>0.02102931181845561</v>
       </c>
       <c r="C4">
-        <v>0.07241017599486563</v>
+        <v>0.1094217749199626</v>
       </c>
       <c r="D4">
-        <v>-0.1133326359249593</v>
+        <v>-0.1173430887633815</v>
       </c>
       <c r="E4">
-        <v>0.112769761597729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.04622547245815335</v>
+      </c>
+      <c r="F4">
+        <v>0.1004899294785482</v>
+      </c>
+      <c r="G4">
+        <v>0.03830443756793765</v>
+      </c>
+      <c r="H4">
+        <v>-0.0671009993951124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02856146580621787</v>
+        <v>0.032865005450874</v>
       </c>
       <c r="C6">
-        <v>0.01531381462238195</v>
+        <v>0.03782512620281416</v>
       </c>
       <c r="D6">
-        <v>-0.1162254741297448</v>
+        <v>-0.09946933771012892</v>
       </c>
       <c r="E6">
-        <v>0.06554259567047339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08521386227486885</v>
+      </c>
+      <c r="F6">
+        <v>0.04731939955556807</v>
+      </c>
+      <c r="G6">
+        <v>0.0001871368335517341</v>
+      </c>
+      <c r="H6">
+        <v>0.01180341660436901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001659413486998107</v>
+        <v>0.006808520994830042</v>
       </c>
       <c r="C7">
-        <v>0.02509672151823567</v>
+        <v>0.04033674022598836</v>
       </c>
       <c r="D7">
-        <v>-0.1122949776944105</v>
+        <v>-0.09045648710589647</v>
       </c>
       <c r="E7">
-        <v>0.0317633162559092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07640516847253885</v>
+      </c>
+      <c r="F7">
+        <v>0.01290220001775736</v>
+      </c>
+      <c r="G7">
+        <v>-0.0003337673578170259</v>
+      </c>
+      <c r="H7">
+        <v>-0.02398489330410539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003706923090178951</v>
+        <v>-0.004179394178441185</v>
       </c>
       <c r="C8">
-        <v>0.02747398249064858</v>
+        <v>0.03874432120232137</v>
       </c>
       <c r="D8">
-        <v>-0.08218332441804538</v>
+        <v>-0.06172741918150779</v>
       </c>
       <c r="E8">
-        <v>0.04490725003378561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04930367253281205</v>
+      </c>
+      <c r="F8">
+        <v>0.04920239855168061</v>
+      </c>
+      <c r="G8">
+        <v>0.07247406540998345</v>
+      </c>
+      <c r="H8">
+        <v>-0.02649233446004078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03826824156717989</v>
+        <v>0.01593621386063681</v>
       </c>
       <c r="C9">
-        <v>0.06403013060835505</v>
+        <v>0.090510443956826</v>
       </c>
       <c r="D9">
-        <v>-0.1171603089421586</v>
+        <v>-0.1032802842904668</v>
       </c>
       <c r="E9">
-        <v>0.09161943691978125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.03953151782966351</v>
+      </c>
+      <c r="F9">
+        <v>0.06729018001440777</v>
+      </c>
+      <c r="G9">
+        <v>0.01737586862552315</v>
+      </c>
+      <c r="H9">
+        <v>-0.02408719913321776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1829794109070077</v>
+        <v>0.2428316589106361</v>
       </c>
       <c r="C10">
-        <v>-0.1715120360832408</v>
+        <v>-0.09706834275261572</v>
       </c>
       <c r="D10">
-        <v>0.03555359021726769</v>
+        <v>0.01439152126784619</v>
       </c>
       <c r="E10">
-        <v>0.04093596004886681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02548900413840105</v>
+      </c>
+      <c r="F10">
+        <v>0.03815008250932545</v>
+      </c>
+      <c r="G10">
+        <v>-0.01341077920930697</v>
+      </c>
+      <c r="H10">
+        <v>0.006182622019356849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01804703630423408</v>
+        <v>0.01185598077246308</v>
       </c>
       <c r="C11">
-        <v>0.04147917259921943</v>
+        <v>0.05959281962210013</v>
       </c>
       <c r="D11">
-        <v>-0.04827809510445689</v>
+        <v>-0.03929317109445304</v>
       </c>
       <c r="E11">
-        <v>-0.009858772640353919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03762688733449895</v>
+      </c>
+      <c r="F11">
+        <v>-0.01240734583877198</v>
+      </c>
+      <c r="G11">
+        <v>-0.00221026706706006</v>
+      </c>
+      <c r="H11">
+        <v>-0.02128184646380058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01707761014634981</v>
+        <v>0.01249316442478402</v>
       </c>
       <c r="C12">
-        <v>0.04244513915375386</v>
+        <v>0.05202271806202091</v>
       </c>
       <c r="D12">
-        <v>-0.06447600896190622</v>
+        <v>-0.04708355228894482</v>
       </c>
       <c r="E12">
-        <v>0.003854634110661131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03396653664801636</v>
+      </c>
+      <c r="F12">
+        <v>-0.01503611695833908</v>
+      </c>
+      <c r="G12">
+        <v>-0.01537054239134389</v>
+      </c>
+      <c r="H12">
+        <v>0.01303453052081003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009501082261222536</v>
+        <v>0.003684784120774576</v>
       </c>
       <c r="C13">
-        <v>0.02707089014242961</v>
+        <v>0.05845206699222177</v>
       </c>
       <c r="D13">
-        <v>-0.1380523670150676</v>
+        <v>-0.1573348023167425</v>
       </c>
       <c r="E13">
-        <v>0.07010325266742995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.07183264516111919</v>
+      </c>
+      <c r="F13">
+        <v>0.04318011783622342</v>
+      </c>
+      <c r="G13">
+        <v>0.05886698854668342</v>
+      </c>
+      <c r="H13">
+        <v>0.07931335291584381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00443283048748083</v>
+        <v>0.004196816496153127</v>
       </c>
       <c r="C14">
-        <v>0.01915386045503688</v>
+        <v>0.03523771895116795</v>
       </c>
       <c r="D14">
-        <v>-0.08267390351672185</v>
+        <v>-0.08704629690331424</v>
       </c>
       <c r="E14">
-        <v>0.02662663264871818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0820071842005294</v>
+      </c>
+      <c r="F14">
+        <v>0.02960199050285768</v>
+      </c>
+      <c r="G14">
+        <v>0.03173942100254262</v>
+      </c>
+      <c r="H14">
+        <v>0.03294958962427984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002814300404407447</v>
+        <v>-0.003604613679244693</v>
       </c>
       <c r="C15">
-        <v>0.01317581969941487</v>
+        <v>0.03023110712893711</v>
       </c>
       <c r="D15">
-        <v>-0.04650842864905632</v>
+        <v>-0.05788634820753492</v>
       </c>
       <c r="E15">
-        <v>0.007934894724771019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.03469998680711384</v>
+      </c>
+      <c r="F15">
+        <v>0.009161468339730512</v>
+      </c>
+      <c r="G15">
+        <v>0.03107570757563301</v>
+      </c>
+      <c r="H15">
+        <v>-0.01005798154967731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01737024558920359</v>
+        <v>0.01104131336442967</v>
       </c>
       <c r="C16">
-        <v>0.03799353720115421</v>
+        <v>0.0521233737916335</v>
       </c>
       <c r="D16">
-        <v>-0.05472769398218221</v>
+        <v>-0.04271506559759527</v>
       </c>
       <c r="E16">
-        <v>0.001954219252350841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03946909262313074</v>
+      </c>
+      <c r="F16">
+        <v>-0.006855999301428244</v>
+      </c>
+      <c r="G16">
+        <v>-0.01246451733788624</v>
+      </c>
+      <c r="H16">
+        <v>-0.01010092478120335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0003650076484720419</v>
+        <v>-0.002162449570084165</v>
       </c>
       <c r="C19">
-        <v>0.02093627217898148</v>
+        <v>0.01653076290793474</v>
       </c>
       <c r="D19">
-        <v>-0.07818533679896995</v>
+        <v>-0.04618180934316722</v>
       </c>
       <c r="E19">
-        <v>0.04418940897719242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.001619800413207305</v>
+      </c>
+      <c r="F19">
+        <v>0.01367034893708037</v>
+      </c>
+      <c r="G19">
+        <v>0.02504864144207228</v>
+      </c>
+      <c r="H19">
+        <v>0.02094545507759596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003963066194440029</v>
+        <v>0.005335617502328993</v>
       </c>
       <c r="C20">
-        <v>0.02604014879164259</v>
+        <v>0.04344470884648614</v>
       </c>
       <c r="D20">
-        <v>-0.07643712719682046</v>
+        <v>-0.08097143713441453</v>
       </c>
       <c r="E20">
-        <v>0.04965685512608568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04656187744935392</v>
+      </c>
+      <c r="F20">
+        <v>0.02834086638515601</v>
+      </c>
+      <c r="G20">
+        <v>-0.002186168990550968</v>
+      </c>
+      <c r="H20">
+        <v>-0.02990077899982685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01116055833133541</v>
+        <v>0.005067517388709404</v>
       </c>
       <c r="C21">
-        <v>0.03281401683347415</v>
+        <v>0.05069587059691903</v>
       </c>
       <c r="D21">
-        <v>-0.1321424456007512</v>
+        <v>-0.1129630745207383</v>
       </c>
       <c r="E21">
-        <v>0.1033780431199678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06113024345045855</v>
+      </c>
+      <c r="F21">
+        <v>0.09165125760121325</v>
+      </c>
+      <c r="G21">
+        <v>0.0775058622742473</v>
+      </c>
+      <c r="H21">
+        <v>0.1014254619210861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004586443729076504</v>
+        <v>-0.006299439486453089</v>
       </c>
       <c r="C22">
-        <v>0.05330850346478149</v>
+        <v>0.08049757657584827</v>
       </c>
       <c r="D22">
-        <v>-0.2164873097104665</v>
+        <v>-0.2161984038602991</v>
       </c>
       <c r="E22">
-        <v>0.07212504063497234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04323876927377518</v>
+      </c>
+      <c r="F22">
+        <v>0.04033577279385531</v>
+      </c>
+      <c r="G22">
+        <v>0.2413365269992742</v>
+      </c>
+      <c r="H22">
+        <v>-0.0937256590879155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004958482350143073</v>
+        <v>-0.003228711412588092</v>
       </c>
       <c r="C23">
-        <v>0.05355361196786597</v>
+        <v>0.08216724256362253</v>
       </c>
       <c r="D23">
-        <v>-0.2151906875180491</v>
+        <v>-0.2197476364141129</v>
       </c>
       <c r="E23">
-        <v>0.07236270573173179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03996190482474185</v>
+      </c>
+      <c r="F23">
+        <v>0.04328687779311614</v>
+      </c>
+      <c r="G23">
+        <v>0.2351163306881773</v>
+      </c>
+      <c r="H23">
+        <v>-0.08837668489391597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02380467408489233</v>
+        <v>0.01227645219217429</v>
       </c>
       <c r="C24">
-        <v>0.05999793307843145</v>
+        <v>0.06998158219428365</v>
       </c>
       <c r="D24">
-        <v>-0.06891284418297337</v>
+        <v>-0.04432207140901594</v>
       </c>
       <c r="E24">
-        <v>0.005161148766871777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04642876736743771</v>
+      </c>
+      <c r="F24">
+        <v>-0.005481546907348782</v>
+      </c>
+      <c r="G24">
+        <v>0.005909276892319948</v>
+      </c>
+      <c r="H24">
+        <v>-0.009484607610511215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02448607340139093</v>
+        <v>0.01653419942469385</v>
       </c>
       <c r="C25">
-        <v>0.05088282413320087</v>
+        <v>0.06458698879292862</v>
       </c>
       <c r="D25">
-        <v>-0.06233148161811401</v>
+        <v>-0.04875333502222288</v>
       </c>
       <c r="E25">
-        <v>0.01170673049073118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.031767609414888</v>
+      </c>
+      <c r="F25">
+        <v>-0.005269258920367698</v>
+      </c>
+      <c r="G25">
+        <v>-0.01021741999540155</v>
+      </c>
+      <c r="H25">
+        <v>-0.008771106486856806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009102975719051193</v>
+        <v>0.01766447329397187</v>
       </c>
       <c r="C26">
-        <v>0.01749113691931661</v>
+        <v>0.03102342307426182</v>
       </c>
       <c r="D26">
-        <v>-0.07122178435778019</v>
+        <v>-0.05472804227393074</v>
       </c>
       <c r="E26">
-        <v>0.0346243046817632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.05845169944883965</v>
+      </c>
+      <c r="F26">
+        <v>0.04593077767845215</v>
+      </c>
+      <c r="G26">
+        <v>0.03530127501103856</v>
+      </c>
+      <c r="H26">
+        <v>0.007304649653905954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2618153024170951</v>
+        <v>0.3109575306800095</v>
       </c>
       <c r="C28">
-        <v>-0.19027995269162</v>
+        <v>-0.09655377407047779</v>
       </c>
       <c r="D28">
-        <v>0.01199842619864351</v>
+        <v>0.0212624735899826</v>
       </c>
       <c r="E28">
-        <v>0.03767006398628662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05664054775384172</v>
+      </c>
+      <c r="F28">
+        <v>0.04578760561201589</v>
+      </c>
+      <c r="G28">
+        <v>0.0635285358582464</v>
+      </c>
+      <c r="H28">
+        <v>-0.004886800058411327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001019064619441918</v>
+        <v>0.002763352653212015</v>
       </c>
       <c r="C29">
-        <v>0.02304503884547162</v>
+        <v>0.04139696629034762</v>
       </c>
       <c r="D29">
-        <v>-0.08225277736541027</v>
+        <v>-0.09192339284604371</v>
       </c>
       <c r="E29">
-        <v>0.03567333307489815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09456173178606946</v>
+      </c>
+      <c r="F29">
+        <v>0.03305886458110883</v>
+      </c>
+      <c r="G29">
+        <v>0.0253748237872195</v>
+      </c>
+      <c r="H29">
+        <v>0.0407804791971411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03092489541989634</v>
+        <v>0.01829553025956061</v>
       </c>
       <c r="C30">
-        <v>0.06939220959986815</v>
+        <v>0.09782822534459473</v>
       </c>
       <c r="D30">
-        <v>-0.1561740356393986</v>
+        <v>-0.1200594587063761</v>
       </c>
       <c r="E30">
-        <v>0.05341655414279303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08440047162324298</v>
+      </c>
+      <c r="F30">
+        <v>0.02212455606019066</v>
+      </c>
+      <c r="G30">
+        <v>0.03290947950908524</v>
+      </c>
+      <c r="H30">
+        <v>-0.04333353037411953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03755708683664877</v>
+        <v>0.01148370662972087</v>
       </c>
       <c r="C31">
-        <v>0.08374697568214277</v>
+        <v>0.09485163464411403</v>
       </c>
       <c r="D31">
-        <v>-0.05490067096166087</v>
+        <v>-0.0329849552516259</v>
       </c>
       <c r="E31">
-        <v>0.02174447223412044</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0249623134418153</v>
+      </c>
+      <c r="F31">
+        <v>0.01775773073179621</v>
+      </c>
+      <c r="G31">
+        <v>0.02112625965080406</v>
+      </c>
+      <c r="H31">
+        <v>-0.003553031701423532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01797101570401636</v>
+        <v>0.01255359377863209</v>
       </c>
       <c r="C32">
-        <v>0.04125351270993824</v>
+        <v>0.05179801285171111</v>
       </c>
       <c r="D32">
-        <v>-0.08803274851874304</v>
+        <v>-0.07692443555880422</v>
       </c>
       <c r="E32">
-        <v>0.06741788854207467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01184325655696832</v>
+      </c>
+      <c r="F32">
+        <v>0.04863918291933633</v>
+      </c>
+      <c r="G32">
+        <v>0.03665308374648048</v>
+      </c>
+      <c r="H32">
+        <v>0.02467589642169251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00835987299378255</v>
+        <v>0.008667980637007034</v>
       </c>
       <c r="C33">
-        <v>0.04113752679911561</v>
+        <v>0.06315613226566771</v>
       </c>
       <c r="D33">
-        <v>-0.1158517158388513</v>
+        <v>-0.1097371328736928</v>
       </c>
       <c r="E33">
-        <v>0.05782476355011165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05685807336611699</v>
+      </c>
+      <c r="F33">
+        <v>0.03065318894614558</v>
+      </c>
+      <c r="G33">
+        <v>0.01766796971834672</v>
+      </c>
+      <c r="H33">
+        <v>-1.87522241651264e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02175896838814865</v>
+        <v>0.01126042933751112</v>
       </c>
       <c r="C34">
-        <v>0.06082228333362829</v>
+        <v>0.06447382903887794</v>
       </c>
       <c r="D34">
-        <v>-0.05963353580005367</v>
+        <v>-0.02487742848524931</v>
       </c>
       <c r="E34">
-        <v>-0.03995767251937157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03854631786381127</v>
+      </c>
+      <c r="F34">
+        <v>-0.03853167462774561</v>
+      </c>
+      <c r="G34">
+        <v>0.004492985495263146</v>
+      </c>
+      <c r="H34">
+        <v>0.001885859682700478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.004103534844548251</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01394943747705734</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03323457023876076</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01791222587532994</v>
+      </c>
+      <c r="F35">
+        <v>0.01681493105706859</v>
+      </c>
+      <c r="G35">
+        <v>0.002035538206907803</v>
+      </c>
+      <c r="H35">
+        <v>0.005575699317069506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008248511959178053</v>
+        <v>0.01127602087537995</v>
       </c>
       <c r="C36">
-        <v>0.008078283007898266</v>
+        <v>0.0235306021879071</v>
       </c>
       <c r="D36">
-        <v>-0.06807367399994002</v>
+        <v>-0.06455367550324972</v>
       </c>
       <c r="E36">
-        <v>0.05687950786861846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04600514327798121</v>
+      </c>
+      <c r="F36">
+        <v>0.05119316770062039</v>
+      </c>
+      <c r="G36">
+        <v>0.02395273062673455</v>
+      </c>
+      <c r="H36">
+        <v>0.002765327170266012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006909122893129607</v>
+        <v>0.01185547611922534</v>
       </c>
       <c r="C38">
-        <v>0.008175598253004011</v>
+        <v>0.02782461522724873</v>
       </c>
       <c r="D38">
-        <v>-0.09087516941678346</v>
+        <v>-0.0857518789216364</v>
       </c>
       <c r="E38">
-        <v>0.02487174623643747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03252487910796104</v>
+      </c>
+      <c r="F38">
+        <v>0.005458074299892837</v>
+      </c>
+      <c r="G38">
+        <v>0.04356352758766265</v>
+      </c>
+      <c r="H38">
+        <v>-0.0293594307713891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01745598757362228</v>
+        <v>0.007763965227226796</v>
       </c>
       <c r="C39">
-        <v>0.06159954550387841</v>
+        <v>0.08517628511033962</v>
       </c>
       <c r="D39">
-        <v>-0.1164308194365474</v>
+        <v>-0.08726342278660769</v>
       </c>
       <c r="E39">
-        <v>0.01622175038604264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08108427597771209</v>
+      </c>
+      <c r="F39">
+        <v>-0.005287049193202564</v>
+      </c>
+      <c r="G39">
+        <v>0.004999447803949531</v>
+      </c>
+      <c r="H39">
+        <v>-0.009433733751170743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01844674529968465</v>
+        <v>0.0132860374981755</v>
       </c>
       <c r="C40">
-        <v>0.02412533544887395</v>
+        <v>0.0435375589874792</v>
       </c>
       <c r="D40">
-        <v>-0.1249195347698034</v>
+        <v>-0.08871178800675755</v>
       </c>
       <c r="E40">
-        <v>0.01023343067159774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07159798055573206</v>
+      </c>
+      <c r="F40">
+        <v>-0.02564493404071766</v>
+      </c>
+      <c r="G40">
+        <v>0.08404469272947905</v>
+      </c>
+      <c r="H40">
+        <v>0.0365724630632538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01144178448880569</v>
+        <v>0.01916120391234566</v>
       </c>
       <c r="C41">
-        <v>0.004080590876232086</v>
+        <v>0.02319326142082324</v>
       </c>
       <c r="D41">
-        <v>-0.03917279107894398</v>
+        <v>-0.04407791558184417</v>
       </c>
       <c r="E41">
-        <v>0.03282005688827883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01099056477217347</v>
+      </c>
+      <c r="F41">
+        <v>0.02300600759502585</v>
+      </c>
+      <c r="G41">
+        <v>0.01341464645102764</v>
+      </c>
+      <c r="H41">
+        <v>-0.002726975656562768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>8.261681145852563e-05</v>
+        <v>0.01043392225083099</v>
       </c>
       <c r="C43">
-        <v>0.003153674298931556</v>
+        <v>0.01759819525585372</v>
       </c>
       <c r="D43">
-        <v>-0.0511624892006891</v>
+        <v>-0.05058778214409476</v>
       </c>
       <c r="E43">
-        <v>0.02965497148267114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02474819426029943</v>
+      </c>
+      <c r="F43">
+        <v>0.02401812005347703</v>
+      </c>
+      <c r="G43">
+        <v>0.01534259110936014</v>
+      </c>
+      <c r="H43">
+        <v>-0.01636301939575484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02029662442583521</v>
+        <v>0.01103449615269915</v>
       </c>
       <c r="C44">
-        <v>0.02505446699487879</v>
+        <v>0.04944595339711632</v>
       </c>
       <c r="D44">
-        <v>-0.09879115349057811</v>
+        <v>-0.09873378705577134</v>
       </c>
       <c r="E44">
-        <v>0.0723732640581224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06459222168019453</v>
+      </c>
+      <c r="F44">
+        <v>0.04107617210749199</v>
+      </c>
+      <c r="G44">
+        <v>0.04885556897657193</v>
+      </c>
+      <c r="H44">
+        <v>-0.01939434585341771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004953075711957557</v>
+        <v>-0.001223550387913649</v>
       </c>
       <c r="C46">
-        <v>0.03192834739538734</v>
+        <v>0.04367342264531258</v>
       </c>
       <c r="D46">
-        <v>-0.08820976926021268</v>
+        <v>-0.0688948727024865</v>
       </c>
       <c r="E46">
-        <v>0.03613906095134466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07085047572690975</v>
+      </c>
+      <c r="F46">
+        <v>0.03585426192108285</v>
+      </c>
+      <c r="G46">
+        <v>0.03779503436632002</v>
+      </c>
+      <c r="H46">
+        <v>0.002798196082082503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07770207668930471</v>
+        <v>0.0324599410906764</v>
       </c>
       <c r="C47">
-        <v>0.1100457289963957</v>
+        <v>0.1272452617207936</v>
       </c>
       <c r="D47">
-        <v>-0.06406441025375588</v>
+        <v>-0.02232950859208148</v>
       </c>
       <c r="E47">
-        <v>0.02701408483466998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.002084132388741699</v>
+      </c>
+      <c r="F47">
+        <v>-0.004104680243530108</v>
+      </c>
+      <c r="G47">
+        <v>-0.01032255804508442</v>
+      </c>
+      <c r="H47">
+        <v>-0.009687413970170465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01046995786556821</v>
+        <v>0.01443086968300784</v>
       </c>
       <c r="C48">
-        <v>0.01844492264294111</v>
+        <v>0.0345813154281336</v>
       </c>
       <c r="D48">
-        <v>-0.07650491204555539</v>
+        <v>-0.06929695621807967</v>
       </c>
       <c r="E48">
-        <v>0.06212682274219373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04001219415579579</v>
+      </c>
+      <c r="F48">
+        <v>0.05769720443019934</v>
+      </c>
+      <c r="G48">
+        <v>0.03594702318581115</v>
+      </c>
+      <c r="H48">
+        <v>-0.006039837043703157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0002613921861985843</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>6.408843938395679e-05</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0001332098523107779</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0002039097382382817</v>
+      </c>
+      <c r="F49">
+        <v>-0.0001034747199238813</v>
+      </c>
+      <c r="G49">
+        <v>-0.0002388425564787845</v>
+      </c>
+      <c r="H49">
+        <v>0.0001891919671499187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03389076283943263</v>
+        <v>0.01436330521318475</v>
       </c>
       <c r="C50">
-        <v>0.0583273631094681</v>
+        <v>0.07594320054480172</v>
       </c>
       <c r="D50">
-        <v>-0.06111930145321556</v>
+        <v>-0.04277624296339428</v>
       </c>
       <c r="E50">
-        <v>0.01566596778130102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02444855210971388</v>
+      </c>
+      <c r="F50">
+        <v>0.01024382560846004</v>
+      </c>
+      <c r="G50">
+        <v>0.02717851951306475</v>
+      </c>
+      <c r="H50">
+        <v>-0.01600700631659819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004873597422975862</v>
+        <v>-0.003997215649393253</v>
       </c>
       <c r="C51">
-        <v>0.007729272781071951</v>
+        <v>0.01793346024887337</v>
       </c>
       <c r="D51">
-        <v>-0.06049678663468512</v>
+        <v>-0.04146609393184612</v>
       </c>
       <c r="E51">
-        <v>0.02170475942689908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04796161603653461</v>
+      </c>
+      <c r="F51">
+        <v>0.03578695667862789</v>
+      </c>
+      <c r="G51">
+        <v>0.05236385474766491</v>
+      </c>
+      <c r="H51">
+        <v>0.01001642774507342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1110906334850905</v>
+        <v>0.06150355061592858</v>
       </c>
       <c r="C53">
-        <v>0.1258465605917514</v>
+        <v>0.1594552942669831</v>
       </c>
       <c r="D53">
-        <v>0.00616195371870438</v>
+        <v>0.02046515950502625</v>
       </c>
       <c r="E53">
-        <v>0.04316543585103466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03209436512650515</v>
+      </c>
+      <c r="F53">
+        <v>0.04234178032823988</v>
+      </c>
+      <c r="G53">
+        <v>0.004136989446764073</v>
+      </c>
+      <c r="H53">
+        <v>-0.01030826127688263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01144084878563968</v>
+        <v>0.01216707622959499</v>
       </c>
       <c r="C54">
-        <v>0.02383775421830246</v>
+        <v>0.04106504423805433</v>
       </c>
       <c r="D54">
-        <v>-0.09540645978942756</v>
+        <v>-0.07555160184582546</v>
       </c>
       <c r="E54">
-        <v>0.02160576518219104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.03850752174222469</v>
+      </c>
+      <c r="F54">
+        <v>0.00667141282396055</v>
+      </c>
+      <c r="G54">
+        <v>0.04070114811699843</v>
+      </c>
+      <c r="H54">
+        <v>-0.02125699122071251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09447799037792294</v>
+        <v>0.04402175840192406</v>
       </c>
       <c r="C55">
-        <v>0.107881413744183</v>
+        <v>0.1287496021098276</v>
       </c>
       <c r="D55">
-        <v>0.000613460501323031</v>
+        <v>0.04420419916874577</v>
       </c>
       <c r="E55">
-        <v>-0.005567647914911622</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004703612673508734</v>
+      </c>
+      <c r="F55">
+        <v>0.002574783502409419</v>
+      </c>
+      <c r="G55">
+        <v>0.01025182386046015</v>
+      </c>
+      <c r="H55">
+        <v>0.008558851248565617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1340494958389794</v>
+        <v>0.06182427106645903</v>
       </c>
       <c r="C56">
-        <v>0.1479650763535135</v>
+        <v>0.1888537623603127</v>
       </c>
       <c r="D56">
-        <v>-0.01785438892576216</v>
+        <v>0.03709806354449712</v>
       </c>
       <c r="E56">
-        <v>-0.001608885985815275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03428151063823119</v>
+      </c>
+      <c r="F56">
+        <v>0.009407566233915667</v>
+      </c>
+      <c r="G56">
+        <v>0.05978076867993438</v>
+      </c>
+      <c r="H56">
+        <v>0.002860360255245459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.002116845211972096</v>
+        <v>0.005929545004579852</v>
       </c>
       <c r="C58">
-        <v>0.01633296505711411</v>
+        <v>0.06180044775935811</v>
       </c>
       <c r="D58">
-        <v>-0.2247288895734494</v>
+        <v>-0.2693111970130473</v>
       </c>
       <c r="E58">
-        <v>0.1545833127899986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.06585070433121887</v>
+      </c>
+      <c r="F58">
+        <v>0.1405431575700283</v>
+      </c>
+      <c r="G58">
+        <v>0.1538918700865673</v>
+      </c>
+      <c r="H58">
+        <v>-0.07926809204571843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1857818588531274</v>
+        <v>0.256604159371339</v>
       </c>
       <c r="C59">
-        <v>-0.1382761250926104</v>
+        <v>-0.06220139402509</v>
       </c>
       <c r="D59">
-        <v>-0.04527986938561549</v>
+        <v>-0.04483867111693762</v>
       </c>
       <c r="E59">
-        <v>0.03548694511292926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01804848387915918</v>
+      </c>
+      <c r="F59">
+        <v>0.01879375633581052</v>
+      </c>
+      <c r="G59">
+        <v>0.0169370786929098</v>
+      </c>
+      <c r="H59">
+        <v>0.03770961342194234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1866339720560189</v>
+        <v>0.1575731346634455</v>
       </c>
       <c r="C60">
-        <v>0.09112256329937742</v>
+        <v>0.1634340424917051</v>
       </c>
       <c r="D60">
-        <v>-0.1238935740203072</v>
+        <v>-0.04313611369193186</v>
       </c>
       <c r="E60">
-        <v>-0.08892370383281693</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1230665984845428</v>
+      </c>
+      <c r="F60">
+        <v>-0.2004140995235629</v>
+      </c>
+      <c r="G60">
+        <v>-0.2739635938580525</v>
+      </c>
+      <c r="H60">
+        <v>0.09098116420995804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02768971076157348</v>
+        <v>0.01573049731384572</v>
       </c>
       <c r="C61">
-        <v>0.05669928944821398</v>
+        <v>0.0799630621766716</v>
       </c>
       <c r="D61">
-        <v>-0.09038024561293394</v>
+        <v>-0.06626285971598465</v>
       </c>
       <c r="E61">
-        <v>0.003970835108502423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06053860123537524</v>
+      </c>
+      <c r="F61">
+        <v>-0.01463192610954521</v>
+      </c>
+      <c r="G61">
+        <v>-0.003504379725060504</v>
+      </c>
+      <c r="H61">
+        <v>0.00281295488991671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01226741661936275</v>
+        <v>0.01521918401881512</v>
       </c>
       <c r="C63">
-        <v>0.02546266357327166</v>
+        <v>0.04339131542575794</v>
       </c>
       <c r="D63">
-        <v>-0.08377882103288564</v>
+        <v>-0.05342934029326712</v>
       </c>
       <c r="E63">
-        <v>0.03117173489864936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07489310034837418</v>
+      </c>
+      <c r="F63">
+        <v>0.02510780636219402</v>
+      </c>
+      <c r="G63">
+        <v>0.01660675592148519</v>
+      </c>
+      <c r="H63">
+        <v>-0.008028666944580915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05462274181275308</v>
+        <v>0.01832567239048143</v>
       </c>
       <c r="C64">
-        <v>0.08616001726046527</v>
+        <v>0.1034524946217976</v>
       </c>
       <c r="D64">
-        <v>-0.02603407682274433</v>
+        <v>-0.01410974773750305</v>
       </c>
       <c r="E64">
-        <v>0.02495049977194989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03298399262130967</v>
+      </c>
+      <c r="F64">
+        <v>0.02243863555778976</v>
+      </c>
+      <c r="G64">
+        <v>-0.01556865977482172</v>
+      </c>
+      <c r="H64">
+        <v>-0.03377997403281627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02700178915886841</v>
+        <v>0.02608520241211297</v>
       </c>
       <c r="C65">
-        <v>0.01697842834530103</v>
+        <v>0.04616024757524496</v>
       </c>
       <c r="D65">
-        <v>-0.09912342578643579</v>
+        <v>-0.09930523327615795</v>
       </c>
       <c r="E65">
-        <v>0.03059835460704689</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06630671427609035</v>
+      </c>
+      <c r="F65">
+        <v>-0.0025677992877641</v>
+      </c>
+      <c r="G65">
+        <v>-0.03371557354468262</v>
+      </c>
+      <c r="H65">
+        <v>-0.03214830258478363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02467753919780077</v>
+        <v>0.008302517919178907</v>
       </c>
       <c r="C66">
-        <v>0.07150762477646601</v>
+        <v>0.1050313691475382</v>
       </c>
       <c r="D66">
-        <v>-0.1336088330959035</v>
+        <v>-0.111499350933461</v>
       </c>
       <c r="E66">
-        <v>0.01725661001653359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.07516498422881569</v>
+      </c>
+      <c r="F66">
+        <v>-0.0058975510739351</v>
+      </c>
+      <c r="G66">
+        <v>0.02161639459648131</v>
+      </c>
+      <c r="H66">
+        <v>-0.01294631048881903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02324414420809387</v>
+        <v>0.0219474459637269</v>
       </c>
       <c r="C67">
-        <v>0.01977136706054731</v>
+        <v>0.0373457311767555</v>
       </c>
       <c r="D67">
-        <v>-0.05451385192111332</v>
+        <v>-0.04430083311458459</v>
       </c>
       <c r="E67">
-        <v>-0.008662510866118092</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.030312527884321</v>
+      </c>
+      <c r="F67">
+        <v>-0.02485597878964367</v>
+      </c>
+      <c r="G67">
+        <v>0.02093721582365511</v>
+      </c>
+      <c r="H67">
+        <v>-0.02061495363961068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2024970868237121</v>
+        <v>0.2777460009322216</v>
       </c>
       <c r="C68">
-        <v>-0.1507162420201741</v>
+        <v>-0.07442457885417561</v>
       </c>
       <c r="D68">
-        <v>-0.01545507224322841</v>
+        <v>-0.02265277182894707</v>
       </c>
       <c r="E68">
-        <v>0.02088401375254385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003690259978577281</v>
+      </c>
+      <c r="F68">
+        <v>0.02678117141796325</v>
+      </c>
+      <c r="G68">
+        <v>0.0547611959532899</v>
+      </c>
+      <c r="H68">
+        <v>0.003367505404835951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05871234526848695</v>
+        <v>0.01762777268306466</v>
       </c>
       <c r="C69">
-        <v>0.1181049834550595</v>
+        <v>0.1168274118370892</v>
       </c>
       <c r="D69">
-        <v>-0.08002815541666079</v>
+        <v>-0.0204457153483394</v>
       </c>
       <c r="E69">
-        <v>0.01898450819683884</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01365051740862985</v>
+      </c>
+      <c r="F69">
+        <v>-0.01190732100175825</v>
+      </c>
+      <c r="G69">
+        <v>0.002826475774383522</v>
+      </c>
+      <c r="H69">
+        <v>0.004333182408669881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2177536342868853</v>
+        <v>0.2708484775344464</v>
       </c>
       <c r="C71">
-        <v>-0.1757175452458815</v>
+        <v>-0.08967338449475756</v>
       </c>
       <c r="D71">
-        <v>-0.01667611446150461</v>
+        <v>-0.009782532646107943</v>
       </c>
       <c r="E71">
-        <v>0.01020162177883</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007340225332343337</v>
+      </c>
+      <c r="F71">
+        <v>0.01601666514286195</v>
+      </c>
+      <c r="G71">
+        <v>0.04338362966394864</v>
+      </c>
+      <c r="H71">
+        <v>-0.01190242028556377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1016559282782583</v>
+        <v>0.06355634426344507</v>
       </c>
       <c r="C72">
-        <v>0.07335327041840209</v>
+        <v>0.1241651301372016</v>
       </c>
       <c r="D72">
-        <v>-0.1185969433050015</v>
+        <v>-0.05558692955567332</v>
       </c>
       <c r="E72">
-        <v>0.005807368055543713</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08347872483004259</v>
+      </c>
+      <c r="F72">
+        <v>-0.01825464375528991</v>
+      </c>
+      <c r="G72">
+        <v>-0.03020865350861518</v>
+      </c>
+      <c r="H72">
+        <v>-0.001432720526458895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1759910163858258</v>
+        <v>0.1596003859614854</v>
       </c>
       <c r="C73">
-        <v>0.0656988039005271</v>
+        <v>0.1595553563926114</v>
       </c>
       <c r="D73">
-        <v>-0.2036624466902462</v>
+        <v>-0.06862452701155085</v>
       </c>
       <c r="E73">
-        <v>-0.1468952904898722</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3031493890463811</v>
+      </c>
+      <c r="F73">
+        <v>-0.293167730853676</v>
+      </c>
+      <c r="G73">
+        <v>-0.4257376582259467</v>
+      </c>
+      <c r="H73">
+        <v>0.05386650735140245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1056338172334416</v>
+        <v>0.05452809196816277</v>
       </c>
       <c r="C74">
-        <v>0.1143486531068189</v>
+        <v>0.1411570019698928</v>
       </c>
       <c r="D74">
-        <v>0.04948981404827883</v>
+        <v>0.05145931393076524</v>
       </c>
       <c r="E74">
-        <v>0.01953619997242525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02667365664503197</v>
+      </c>
+      <c r="F74">
+        <v>0.02978379052969968</v>
+      </c>
+      <c r="G74">
+        <v>-0.01274046690091118</v>
+      </c>
+      <c r="H74">
+        <v>-0.0005670366615748223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2235196846751214</v>
+        <v>0.1016485170100674</v>
       </c>
       <c r="C75">
-        <v>0.2016113603747112</v>
+        <v>0.2595197415302348</v>
       </c>
       <c r="D75">
-        <v>0.07202946620086602</v>
+        <v>0.1218798234607429</v>
       </c>
       <c r="E75">
-        <v>-0.06774450711432126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1181058877767397</v>
+      </c>
+      <c r="F75">
+        <v>-0.04207373946218949</v>
+      </c>
+      <c r="G75">
+        <v>0.1155047805148653</v>
+      </c>
+      <c r="H75">
+        <v>-0.06109043702154619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1353322297530976</v>
+        <v>0.06177793028221374</v>
       </c>
       <c r="C76">
-        <v>0.1364403272949103</v>
+        <v>0.1763141618942474</v>
       </c>
       <c r="D76">
-        <v>0.002302190125616214</v>
+        <v>0.05196745999029877</v>
       </c>
       <c r="E76">
-        <v>-0.009806100569111799</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03610846806389768</v>
+      </c>
+      <c r="F76">
+        <v>-0.001763328143182314</v>
+      </c>
+      <c r="G76">
+        <v>0.04504176565581199</v>
+      </c>
+      <c r="H76">
+        <v>-0.01050964470606231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01853623714835144</v>
+        <v>0.001748437221867142</v>
       </c>
       <c r="C77">
-        <v>0.07720073803938121</v>
+        <v>0.1161356894418756</v>
       </c>
       <c r="D77">
-        <v>-0.1939298917673404</v>
+        <v>-0.4777297375470854</v>
       </c>
       <c r="E77">
-        <v>0.1550495860898385</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7717627233119962</v>
+      </c>
+      <c r="F77">
+        <v>-0.2064465856784817</v>
+      </c>
+      <c r="G77">
+        <v>-0.218500246575406</v>
+      </c>
+      <c r="H77">
+        <v>-0.02218155393574018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03412679274389671</v>
+        <v>0.02359430049680172</v>
       </c>
       <c r="C78">
-        <v>0.0730813878276164</v>
+        <v>0.09541632518047571</v>
       </c>
       <c r="D78">
-        <v>-0.1540596543023702</v>
+        <v>-0.09151758699941104</v>
       </c>
       <c r="E78">
-        <v>0.08022319826244731</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07701182760592069</v>
+      </c>
+      <c r="F78">
+        <v>0.05315821939242229</v>
+      </c>
+      <c r="G78">
+        <v>0.0788743009719771</v>
+      </c>
+      <c r="H78">
+        <v>0.04992128983369394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1094705043600062</v>
+        <v>0.04890349306539539</v>
       </c>
       <c r="C79">
-        <v>0.1985077112358393</v>
+        <v>0.2071106159771189</v>
       </c>
       <c r="D79">
-        <v>0.4160888901301434</v>
+        <v>0.11993760639639</v>
       </c>
       <c r="E79">
-        <v>0.7852037929345602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1063909439819545</v>
+      </c>
+      <c r="F79">
+        <v>0.7810755993826589</v>
+      </c>
+      <c r="G79">
+        <v>-0.4547254710346053</v>
+      </c>
+      <c r="H79">
+        <v>-0.02211362376697723</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003892244834451628</v>
+        <v>0.00706229443707894</v>
       </c>
       <c r="C80">
-        <v>0.04436159956108012</v>
+        <v>0.04449370719030952</v>
       </c>
       <c r="D80">
-        <v>-0.05080771765970026</v>
+        <v>-0.03305787159016742</v>
       </c>
       <c r="E80">
-        <v>0.005916650011723501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06114770536588954</v>
+      </c>
+      <c r="F80">
+        <v>0.003075381872908465</v>
+      </c>
+      <c r="G80">
+        <v>0.009710633671971579</v>
+      </c>
+      <c r="H80">
+        <v>0.08989818491810721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1132463719922491</v>
+        <v>0.03905876742053997</v>
       </c>
       <c r="C81">
-        <v>0.1358709580990418</v>
+        <v>0.1609965854808674</v>
       </c>
       <c r="D81">
-        <v>0.07446174018924269</v>
+        <v>0.07085929905208928</v>
       </c>
       <c r="E81">
-        <v>0.01414830324333113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06042255159746462</v>
+      </c>
+      <c r="F81">
+        <v>0.05826684301262489</v>
+      </c>
+      <c r="G81">
+        <v>0.08057256008647307</v>
+      </c>
+      <c r="H81">
+        <v>0.0146881664230733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2381132493978899</v>
+        <v>0.08755962211377032</v>
       </c>
       <c r="C82">
-        <v>0.2959788233063533</v>
+        <v>0.3035987130835011</v>
       </c>
       <c r="D82">
-        <v>0.1238534485283976</v>
+        <v>0.2227726752725631</v>
       </c>
       <c r="E82">
-        <v>-0.2135055135138714</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.09814450203232672</v>
+      </c>
+      <c r="F82">
+        <v>-0.1250955803491131</v>
+      </c>
+      <c r="G82">
+        <v>0.1419191407618029</v>
+      </c>
+      <c r="H82">
+        <v>0.02000651259094083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.009921850247973475</v>
+        <v>-0.009204537880265635</v>
       </c>
       <c r="C83">
-        <v>0.05275711349383898</v>
+        <v>0.0187326996804062</v>
       </c>
       <c r="D83">
-        <v>-0.01302666705518034</v>
+        <v>-0.02633294646027078</v>
       </c>
       <c r="E83">
-        <v>0.04664787567144572</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09064065627962133</v>
+      </c>
+      <c r="F83">
+        <v>0.06970926718000522</v>
+      </c>
+      <c r="G83">
+        <v>0.1079583179895452</v>
+      </c>
+      <c r="H83">
+        <v>0.9263416035459423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0002374407560837531</v>
+        <v>-0.002977373571950403</v>
       </c>
       <c r="C84">
-        <v>-0.001537064001490381</v>
+        <v>0.01860630203046027</v>
       </c>
       <c r="D84">
-        <v>-0.001930668358750487</v>
+        <v>-0.04164723632258661</v>
       </c>
       <c r="E84">
-        <v>-0.002511386452041461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01145023104345485</v>
+      </c>
+      <c r="F84">
+        <v>0.0315615862740698</v>
+      </c>
+      <c r="G84">
+        <v>0.06108249726038935</v>
+      </c>
+      <c r="H84">
+        <v>-0.0515576316628512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1406507195888407</v>
+        <v>0.05709211742141104</v>
       </c>
       <c r="C85">
-        <v>0.1427248823571691</v>
+        <v>0.176455997077638</v>
       </c>
       <c r="D85">
-        <v>0.07787841739370641</v>
+        <v>0.109442890706585</v>
       </c>
       <c r="E85">
-        <v>0.01974105637917957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02170969754439201</v>
+      </c>
+      <c r="F85">
+        <v>0.06547303286760393</v>
+      </c>
+      <c r="G85">
+        <v>0.02346745758351124</v>
+      </c>
+      <c r="H85">
+        <v>-0.01522124810637717</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02054632997076764</v>
+        <v>0.01655277812810461</v>
       </c>
       <c r="C86">
-        <v>0.008320457930781374</v>
+        <v>0.03995753431242013</v>
       </c>
       <c r="D86">
-        <v>-0.1065554178430703</v>
+        <v>-0.1109236768106559</v>
       </c>
       <c r="E86">
-        <v>0.04501246813535325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0008495061320027401</v>
+      </c>
+      <c r="F86">
+        <v>0.01980484899310096</v>
+      </c>
+      <c r="G86">
+        <v>-0.009320235284892025</v>
+      </c>
+      <c r="H86">
+        <v>-0.02982264717172081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02348473089274783</v>
+        <v>0.01429585825574127</v>
       </c>
       <c r="C87">
-        <v>0.03011845364507545</v>
+        <v>0.06707075211828639</v>
       </c>
       <c r="D87">
-        <v>-0.1454773610311594</v>
+        <v>-0.1374172855849927</v>
       </c>
       <c r="E87">
-        <v>0.08669219575510732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04645505699908506</v>
+      </c>
+      <c r="F87">
+        <v>0.05111338080377261</v>
+      </c>
+      <c r="G87">
+        <v>0.07611664442563838</v>
+      </c>
+      <c r="H87">
+        <v>0.01544278230629489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05205192238674646</v>
+        <v>0.03611554057031385</v>
       </c>
       <c r="C88">
-        <v>0.04514453685069045</v>
+        <v>0.07079866976165382</v>
       </c>
       <c r="D88">
-        <v>-0.009025308109998856</v>
+        <v>-0.01337888464110485</v>
       </c>
       <c r="E88">
-        <v>0.02249948741054253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03343418992387769</v>
+      </c>
+      <c r="F88">
+        <v>0.01949757030443483</v>
+      </c>
+      <c r="G88">
+        <v>-0.009441165333777724</v>
+      </c>
+      <c r="H88">
+        <v>-0.01880180389467329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3250532368403262</v>
+        <v>0.3970594702868885</v>
       </c>
       <c r="C89">
-        <v>-0.3187040833489455</v>
+        <v>-0.1660357902103643</v>
       </c>
       <c r="D89">
-        <v>-0.04284258606240695</v>
+        <v>-0.05560534226887277</v>
       </c>
       <c r="E89">
-        <v>0.1152350695451779</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03602998886575964</v>
+      </c>
+      <c r="F89">
+        <v>0.06746520861137703</v>
+      </c>
+      <c r="G89">
+        <v>0.06807700319219812</v>
+      </c>
+      <c r="H89">
+        <v>0.0938460950287005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2597774451334087</v>
+        <v>0.3212357419836925</v>
       </c>
       <c r="C90">
-        <v>-0.2345164611097913</v>
+        <v>-0.1098704579833179</v>
       </c>
       <c r="D90">
-        <v>-0.05329149822396342</v>
+        <v>-0.03215839370649111</v>
       </c>
       <c r="E90">
-        <v>0.0007740953384499073</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001933352090764725</v>
+      </c>
+      <c r="F90">
+        <v>-0.005162648366234031</v>
+      </c>
+      <c r="G90">
+        <v>0.06556534550413756</v>
+      </c>
+      <c r="H90">
+        <v>0.00807722454062265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1483935077889287</v>
+        <v>0.068629458570295</v>
       </c>
       <c r="C91">
-        <v>0.1912512906029035</v>
+        <v>0.2022337848506165</v>
       </c>
       <c r="D91">
-        <v>0.09697859391665038</v>
+        <v>0.1029455027150186</v>
       </c>
       <c r="E91">
-        <v>0.04370635467103257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08296701954848104</v>
+      </c>
+      <c r="F91">
+        <v>0.05657773545337936</v>
+      </c>
+      <c r="G91">
+        <v>0.003500616626100466</v>
+      </c>
+      <c r="H91">
+        <v>0.02098964126596921</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2434280070994622</v>
+        <v>0.3323776733778151</v>
       </c>
       <c r="C92">
-        <v>-0.2592895336030922</v>
+        <v>-0.1505182259238579</v>
       </c>
       <c r="D92">
-        <v>0.04336915590904903</v>
+        <v>-0.02181566100205717</v>
       </c>
       <c r="E92">
-        <v>0.03187759614754369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06917494638423151</v>
+      </c>
+      <c r="F92">
+        <v>0.04039465975534076</v>
+      </c>
+      <c r="G92">
+        <v>0.02390827794822581</v>
+      </c>
+      <c r="H92">
+        <v>-0.1322845943224086</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2831899671473999</v>
+        <v>0.3294759276480728</v>
       </c>
       <c r="C93">
-        <v>-0.2488913438466385</v>
+        <v>-0.1240613625670197</v>
       </c>
       <c r="D93">
-        <v>0.01910673269244827</v>
+        <v>0.02386795579494683</v>
       </c>
       <c r="E93">
-        <v>-0.0007747927886971643</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01245288324303657</v>
+      </c>
+      <c r="F93">
+        <v>0.01294810629792735</v>
+      </c>
+      <c r="G93">
+        <v>-0.01802576443362146</v>
+      </c>
+      <c r="H93">
+        <v>-0.03728626216539799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.275039296933266</v>
+        <v>0.126339119820482</v>
       </c>
       <c r="C94">
-        <v>0.268943667901147</v>
+        <v>0.3266475768266618</v>
       </c>
       <c r="D94">
-        <v>0.2447861541625714</v>
+        <v>0.3515955161875032</v>
       </c>
       <c r="E94">
-        <v>-0.2845262024392715</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1284367837503147</v>
+      </c>
+      <c r="F94">
+        <v>-0.1335496680346804</v>
+      </c>
+      <c r="G94">
+        <v>0.2979114630716216</v>
+      </c>
+      <c r="H94">
+        <v>-0.0601186314456423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.009670136776382744</v>
+        <v>0.01678982631735106</v>
       </c>
       <c r="C95">
-        <v>0.04382674412214508</v>
+        <v>0.07105862286553961</v>
       </c>
       <c r="D95">
-        <v>-0.09963779086724768</v>
+        <v>-0.1331284881734976</v>
       </c>
       <c r="E95">
-        <v>0.05715010378558046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09544900695591536</v>
+      </c>
+      <c r="F95">
+        <v>-0.03499510958377657</v>
+      </c>
+      <c r="G95">
+        <v>-0.05274513734315763</v>
+      </c>
+      <c r="H95">
+        <v>-0.05471269547678207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002360950154822356</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00108227598040485</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0004236368965642117</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003659018876679233</v>
+      </c>
+      <c r="F97">
+        <v>0.0005829766988865858</v>
+      </c>
+      <c r="G97">
+        <v>0.002417877028357066</v>
+      </c>
+      <c r="H97">
+        <v>-0.005230423631518508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1552199324881022</v>
+        <v>0.1375219737258691</v>
       </c>
       <c r="C98">
-        <v>0.09013371813311033</v>
+        <v>0.1623557149152715</v>
       </c>
       <c r="D98">
-        <v>-0.1310418962127698</v>
+        <v>-0.02575504592974184</v>
       </c>
       <c r="E98">
-        <v>-0.1340584175121069</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.194958051125054</v>
+      </c>
+      <c r="F98">
+        <v>-0.242906754022452</v>
+      </c>
+      <c r="G98">
+        <v>-0.3137746014092559</v>
+      </c>
+      <c r="H98">
+        <v>0.07240235212783799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001793692392447785</v>
+        <v>0.00320447247314195</v>
       </c>
       <c r="C101">
-        <v>0.0223067054264196</v>
+        <v>0.04061068625485395</v>
       </c>
       <c r="D101">
-        <v>-0.08209724669140521</v>
+        <v>-0.09121974787851878</v>
       </c>
       <c r="E101">
-        <v>0.03659358319108751</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0936498018169343</v>
+      </c>
+      <c r="F101">
+        <v>0.03321417767334844</v>
+      </c>
+      <c r="G101">
+        <v>0.02636550000780068</v>
+      </c>
+      <c r="H101">
+        <v>0.04074968476050889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1011756521693295</v>
+        <v>0.02456952202841477</v>
       </c>
       <c r="C102">
-        <v>0.1621626271678008</v>
+        <v>0.142272753193379</v>
       </c>
       <c r="D102">
-        <v>0.02475874706740343</v>
+        <v>0.09669279771234648</v>
       </c>
       <c r="E102">
-        <v>-0.09589028300877536</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05306918264180492</v>
+      </c>
+      <c r="F102">
+        <v>-0.08139638012309636</v>
+      </c>
+      <c r="G102">
+        <v>0.0151868391672744</v>
+      </c>
+      <c r="H102">
+        <v>0.02545823508517674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
